--- a/docs/proposals/NSF/budgets/budgetFSU.xlsx
+++ b/docs/proposals/NSF/budgets/budgetFSU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bquaife/projects/erosion/docs/proposals/NSF/budgets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9546FB-6A8D-5F4C-943F-440C178CDB2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2440E1-7DBA-2B47-9115-7521B3DD6CE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24960" yWindow="460" windowWidth="26320" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="2260" windowWidth="26320" windowHeight="25500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="budg 1" sheetId="4" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
-  <si>
-    <t>PI name  Matthew N. Moore</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t xml:space="preserve">Title.  </t>
   </si>
@@ -60,9 +57,6 @@
     <t>INFORMATION TO FILL OUT</t>
   </si>
   <si>
-    <t>PI name    Matthew Moore</t>
-  </si>
-  <si>
     <t>Number of GAs</t>
   </si>
   <si>
@@ -72,27 +66,18 @@
     <t>Current Stipend Amt</t>
   </si>
   <si>
-    <t>PI#2 name   Bryan Quaife</t>
-  </si>
-  <si>
     <t>Number of semester per AY</t>
   </si>
   <si>
     <t>Current Summer Stipend</t>
   </si>
   <si>
-    <t>Tech Person</t>
-  </si>
-  <si>
     <t>Number of Summer GAs</t>
   </si>
   <si>
     <t>Current Insurance Subsidy</t>
   </si>
   <si>
-    <t xml:space="preserve">Post doc  </t>
-  </si>
-  <si>
     <t>Current Fringe Amount</t>
   </si>
   <si>
@@ -105,15 +90,6 @@
     <t>Credit hours per semester</t>
   </si>
   <si>
-    <t>Undergrad</t>
-  </si>
-  <si>
-    <t>Number of PostDocs</t>
-  </si>
-  <si>
-    <t>Biweekly Salary</t>
-  </si>
-  <si>
     <t>Number of pay periods</t>
   </si>
   <si>
@@ -123,9 +99,6 @@
     <t>TOTAL BENEFITS</t>
   </si>
   <si>
-    <t>Current Health Amount</t>
-  </si>
-  <si>
     <t>TOTAL SALARIES AND BENEFITS/INS</t>
   </si>
   <si>
@@ -141,9 +114,6 @@
     <t>Travel</t>
   </si>
   <si>
-    <t>19.5/9</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Domestic</t>
   </si>
   <si>
@@ -162,9 +132,6 @@
     <t>Publication costs</t>
   </si>
   <si>
-    <t>Number of Tech Persons</t>
-  </si>
-  <si>
     <t>TOTAL EXPENSES</t>
   </si>
   <si>
@@ -183,9 +150,6 @@
     <t>OVERHEAD</t>
   </si>
   <si>
-    <t>Number of Undergraduates</t>
-  </si>
-  <si>
     <t>FSU Rate</t>
   </si>
   <si>
@@ -205,6 +169,12 @@
   </si>
   <si>
     <t>Annual Increase in Tuition</t>
+  </si>
+  <si>
+    <t>PI name  Bryan Quaife</t>
+  </si>
+  <si>
+    <t>PI name    Bryan Quaife</t>
   </si>
 </sst>
 </file>
@@ -276,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -400,34 +370,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -440,19 +384,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -462,20 +393,20 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -506,7 +437,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="5" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +449,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="7" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -536,28 +466,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="5" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,7 +888,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -970,13 +898,13 @@
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="5" width="14.59765625" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.59765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.3984375" customWidth="1"/>
     <col min="9" max="9" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -984,71 +912,71 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29">
         <v>2020</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="29">
         <v>2021</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="29">
         <v>2022</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="44"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6">
-        <f xml:space="preserve"> $I$23*$I$25</f>
-        <v>9720.1765128205134</v>
+        <f xml:space="preserve"> $I$17*$I$19</f>
+        <v>10552.682461538463</v>
       </c>
       <c r="D5" s="6">
-        <f xml:space="preserve"> C5*(1+$I$40)</f>
-        <v>10011.781808205129</v>
-      </c>
-      <c r="E5" s="6">
-        <f xml:space="preserve"> D5*(1+$I$40)</f>
-        <v>10312.135262451284</v>
+        <f xml:space="preserve"> C5*(1+$I$22)</f>
+        <v>10869.262935384617</v>
+      </c>
+      <c r="E5" s="4">
+        <f>$J$17*$J$19</f>
+        <v>5597.5370000000003</v>
       </c>
       <c r="F5" s="4">
         <f>SUM(C5:E5)</f>
-        <v>30044.093583476926</v>
+        <v>27019.482396923082</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="24">
+        <v>6</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="23">
         <v>1</v>
       </c>
       <c r="J5">
@@ -1057,28 +985,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
-        <f>C5*$I$24</f>
-        <v>1658.2621130871796</v>
+        <f>C5*$I$18</f>
+        <v>1800.2876279384618</v>
       </c>
       <c r="D6" s="4">
-        <f>D5*$I$24</f>
-        <v>1708.0099764797951</v>
+        <f>D5*$I$18</f>
+        <v>1854.2962567766156</v>
       </c>
       <c r="E6" s="4">
-        <f>E5*$I$24</f>
-        <v>1759.250275774189</v>
+        <f>E5*$I$18</f>
+        <v>954.93981220000001</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F16" si="0">SUM(C6:E6)</f>
-        <v>5125.5223653411631</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="15">
+        <f t="shared" ref="F6" si="0">SUM(C6:E6)</f>
+        <v>4609.5236969150774</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="14">
         <v>10500</v>
       </c>
       <c r="J6">
@@ -1087,28 +1015,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <f xml:space="preserve"> $I$45*$I$47</f>
-        <v>10552.682461538463</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <f xml:space="preserve"> (I5 * I6 * I7) + (I8*I9)</f>
+        <v>21000</v>
       </c>
       <c r="D7" s="4">
-        <f>C7*(1+I40)</f>
-        <v>10869.262935384617</v>
+        <f>C7*(1+$I$22)</f>
+        <v>21630</v>
       </c>
       <c r="E7" s="4">
-        <f xml:space="preserve"> $J$45*$J$47</f>
-        <v>5597.5370000000003</v>
+        <f>D7*(1+$I$22)</f>
+        <v>22278.9</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>27019.482396923082</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="17">
+        <f>SUM(C7:E7)</f>
+        <v>64908.9</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="16">
         <v>2</v>
       </c>
       <c r="J7">
@@ -1117,28 +1045,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
-        <f>C7*$I$24</f>
-        <v>1800.2876279384618</v>
+        <f>(C7*$I$11) + ($I$5*$I$10)</f>
+        <v>1986</v>
       </c>
       <c r="D8" s="4">
-        <f>D7*$I$24</f>
-        <v>1854.2962567766156</v>
+        <f>(D7*$I$11) + ($I$5*$I$10)</f>
+        <v>1986.63</v>
       </c>
       <c r="E8" s="4">
-        <f>E7*$I$24</f>
-        <v>954.93981220000001</v>
+        <f>(E7*$I$11) + ($I$5*$I$10)</f>
+        <v>1987.2789</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>4609.5236969150774</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="18">
+        <f>SUM(C8:E8)</f>
+        <v>5959.9089000000004</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="17">
         <v>7850</v>
       </c>
       <c r="J8">
@@ -1146,29 +1074,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4">
-        <f>I27*I28*I29</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <f>C9*(1+$I$40)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <f>D9*(1+$I$40)*0</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="B9" s="1"/>
+      <c r="H9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="16">
         <v>0</v>
       </c>
       <c r="J9">
@@ -1176,82 +1086,84 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <f>C9*I30</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <f>D9*I30</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" ref="E10" si="1">E9*16.64%</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:E11" si="1">SUM(C5,C7)</f>
+        <v>31552.682461538461</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>32499.262935384617</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>27876.437000000002</v>
+      </c>
+      <c r="F10" s="3">
+        <f xml:space="preserve"> SUM(C10:E10)</f>
+        <v>91928.382396923087</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="12">
         <v>1965</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>19</v>
+      <c r="A11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3786.2876279384618</v>
       </c>
       <c r="D11" s="4">
-        <f>C11*(1+$I$40)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3840.9262567766154</v>
       </c>
       <c r="E11" s="4">
-        <f>D11*(1+$I$40)*0</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="20">
+        <f t="shared" si="1"/>
+        <v>2942.2187122</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11:F12" si="2" xml:space="preserve"> SUM(C11:E11)</f>
+        <v>10569.432596915078</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="19">
         <v>1E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4">
-        <f>C11*$I$18</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" ref="D12:E12" si="2">D11*$I$18</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3">
+        <f>C10+C11</f>
+        <v>35338.970089476919</v>
+      </c>
+      <c r="D12" s="3">
+        <f>D10+D11</f>
+        <v>36340.189192161233</v>
+      </c>
+      <c r="E12" s="3">
+        <f>E10+E11</f>
+        <v>30818.655712200001</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="26">
+        <v>102497.81499383817</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="12">
         <v>407.55</v>
       </c>
       <c r="J12">
@@ -1259,29 +1171,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4">
-        <f xml:space="preserve"> (I5 * I6 * I7) + (I8*I9)</f>
-        <v>21000</v>
-      </c>
-      <c r="D13" s="4">
-        <f>C13*(1+$I$40)</f>
-        <v>21630</v>
-      </c>
-      <c r="E13" s="4">
-        <f>D13*(1+$I$40)</f>
-        <v>22278.9</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>64908.9</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="H13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="12">
         <v>9</v>
       </c>
       <c r="J13">
@@ -1289,632 +1182,442 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <f>(C13*$I$11) + ($I$5*$I$10)</f>
-        <v>1986</v>
-      </c>
-      <c r="D14" s="4">
-        <f>(D13*$I$11) + ($I$5*$I$10)</f>
-        <v>1986.63</v>
-      </c>
-      <c r="E14" s="4">
-        <f>(E13*$I$11) + ($I$5*$I$10)</f>
-        <v>1987.2789</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>5959.9089000000004</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4">
-        <f xml:space="preserve"> I33*I34*I35</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <f>C15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f>D15*(1+$I$40)*0</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="A15"/>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="H15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="12">
+        <v>93535.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:F17" si="3" xml:space="preserve"> SUM(C16:E16)</f>
+        <v>4000</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4">
-        <f>C15*I36</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <f>D15*I36</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <f>E15*$I$36*0</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="28">
-        <v>0</v>
+      <c r="I16" s="12">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J17">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ref="F18:F27" si="4" xml:space="preserve"> SUM(C18:E18)</f>
+        <v>1500</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3">
-        <f>C5+C7+C9+C11+C13+C15</f>
-        <v>41272.858974358976</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="C18:D19" si="3">D5+D7+D9+D11+D13+D15</f>
-        <v>42511.044743589744</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" ref="E18" si="4">E5+E7+E9+E11+E13+E15</f>
-        <v>38188.572262451285</v>
-      </c>
-      <c r="F18" s="3">
-        <f xml:space="preserve"> SUM(C18:E18)</f>
-        <v>121972.47598040001</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="30">
-        <v>1.55E-2</v>
-      </c>
-      <c r="J18" s="4"/>
+      <c r="I18" s="19">
+        <v>0.1706</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0.1706</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="3"/>
-        <v>5444.5497410256412</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>5548.9362332564106</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" ref="E19" si="5">E6+E8+E10+E12+E14+E16</f>
-        <v>4701.4689879741891</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" ref="F19:F20" si="6" xml:space="preserve"> SUM(C19:E19)</f>
-        <v>15694.954962256241</v>
-      </c>
-      <c r="H19" s="12" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="18">
-        <v>16555</v>
-      </c>
-      <c r="J19" s="7"/>
+      <c r="I19" s="12">
+        <f xml:space="preserve"> IF(I16 = 9, I15/19.5, IF(I16 = 12, I15/26,0))</f>
+        <v>4796.6738461538462</v>
+      </c>
+      <c r="J19" s="31">
+        <v>5088.67</v>
+      </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3">
-        <f>C18+C19</f>
-        <v>46717.408715384619</v>
+        <f>C16+C17+C18+C19</f>
+        <v>1500</v>
       </c>
       <c r="D20" s="3">
-        <f>D18+D19</f>
-        <v>48059.980976846156</v>
+        <f t="shared" ref="D20:E20" si="5">D16+D17+D18+D19</f>
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
-        <f>E18+E19</f>
-        <v>42890.041250425478</v>
+        <f t="shared" si="5"/>
+        <v>2000</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="6"/>
-        <v>137667.43094265624</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="11"/>
+        <f t="shared" si="4"/>
+        <v>5500</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="10"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="13">
-        <v>86156.11</v>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0.54</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23" t="s">
+      <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="H23" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J23" s="38" t="s">
+      <c r="C22" s="3">
+        <f xml:space="preserve"> ((I5*I7)+I9)*I12*I13</f>
+        <v>7335.9000000000005</v>
+      </c>
+      <c r="D22" s="3">
+        <f xml:space="preserve"> C22 * (1+$I$23)</f>
+        <v>7409.2590000000009</v>
+      </c>
+      <c r="E22" s="3">
+        <f xml:space="preserve"> ((J5*J7)+J9)*J12*J13</f>
+        <v>7483.5</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="4"/>
+        <v>22228.659</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C23" s="3">
+        <f>C20+C12+C21+C22</f>
+        <v>44174.870089476921</v>
+      </c>
+      <c r="D23" s="3">
+        <f>D20+D12+D21+D22</f>
+        <v>45749.448192161231</v>
+      </c>
+      <c r="E23" s="3">
+        <f>E20+E12+E21+E22</f>
+        <v>40302.155712200001</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
+        <v>130226.47399383815</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3500</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3500</v>
+      <c r="C24" s="3">
+        <f>C20+C12</f>
+        <v>36838.970089476919</v>
+      </c>
+      <c r="D24" s="3">
+        <f>D20+D12</f>
+        <v>38340.189192161233</v>
+      </c>
+      <c r="E24" s="3">
+        <f>E20+E12</f>
+        <v>32818.655712200001</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" ref="F24:F25" si="7" xml:space="preserve"> SUM(C24:E24)</f>
-        <v>7000</v>
-      </c>
-      <c r="H24" s="31" t="s">
+        <f t="shared" si="4"/>
+        <v>107997.81499383817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="30">
-        <v>0.1706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="13">
-        <f xml:space="preserve"> IF(I22 = 9, I21/19.5, IF(I22 = 12, I21/26,0))</f>
-        <v>4418.2620512820513</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3">
+        <f>C24*$I$21</f>
+        <v>19893.043848317539</v>
+      </c>
+      <c r="D26" s="3">
+        <f>D24*$I$21</f>
+        <v>20703.702163767066</v>
+      </c>
+      <c r="E26" s="3">
+        <f>E24*$I$21</f>
+        <v>17722.074084588003</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="4"/>
+        <v>58318.820096672614</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" s="3">
+        <f>C23+C26</f>
+        <v>64067.913937794459</v>
+      </c>
+      <c r="D27" s="3">
+        <f>D23+D26</f>
+        <v>66453.150355928301</v>
+      </c>
+      <c r="E27" s="3">
+        <f>E23+E26</f>
+        <v>58024.229796788</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" si="4"/>
+        <v>188545.29409051075</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C30" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="4">
-        <v>3000</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" ref="F26:F35" si="8" xml:space="preserve"> SUM(C26:E26)</f>
-        <v>3000</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="26">
+        <f>I22</f>
+        <v>0.03</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="3">
-        <f>C24+C25+C26+C27</f>
-        <v>3000</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" ref="D28:E28" si="9">D24+D25+D26+D27</f>
-        <v>3500</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="9"/>
-        <v>3500</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="8"/>
-        <v>10000</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="3">
-        <f xml:space="preserve"> ((I5*I7)+I9)*I12*I13</f>
-        <v>7335.9000000000005</v>
-      </c>
-      <c r="D30" s="3">
-        <f xml:space="preserve"> C30 * (1+$I$41)</f>
-        <v>7409.2590000000009</v>
-      </c>
-      <c r="E30" s="3">
-        <f xml:space="preserve"> ((J5*J7)+J9)*J12*J13</f>
-        <v>7483.5</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="8"/>
-        <v>22228.659</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="3">
-        <f>C28+C20+C29+C30</f>
-        <v>57053.308715384621</v>
-      </c>
-      <c r="D31" s="3">
-        <f>D28+D20+D29+D30</f>
-        <v>58969.239976846155</v>
-      </c>
-      <c r="E31" s="3">
-        <f>E28+E20+E29+E30</f>
-        <v>53873.541250425478</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="8"/>
-        <v>169896.08994265625</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="26">
+        <f>I23</f>
+        <v>0.01</v>
+      </c>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="3">
-        <f>C28+C20</f>
-        <v>49717.408715384619</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" ref="D32:E32" si="10">D28+D20</f>
-        <v>51559.980976846156</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="10"/>
-        <v>46390.041250425478</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="8"/>
-        <v>147667.43094265624</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G33" s="4"/>
-      <c r="H33" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="3">
-        <f>C32*$I$39</f>
-        <v>26847.400706307697</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" ref="D34:E34" si="11">D32*$I$39</f>
-        <v>27842.389727496928</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="11"/>
-        <v>25050.622275229758</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="8"/>
-        <v>79740.412709034383</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="3">
-        <f>C31+C34</f>
-        <v>83900.709421692314</v>
-      </c>
-      <c r="D35" s="3">
-        <f>D31+D34</f>
-        <v>86811.629704343082</v>
-      </c>
-      <c r="E35" s="3">
-        <f>E31+E34</f>
-        <v>78924.16352565524</v>
-      </c>
-      <c r="F35" s="37">
-        <f t="shared" si="8"/>
-        <v>249636.50265169062</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H36" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="H37" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C38" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="34">
-        <f>I40</f>
-        <v>0.03</v>
-      </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-      <c r="C39" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="34">
-        <f>I41</f>
-        <v>0.01</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" s="20">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="39"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="41"/>
-      <c r="H40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="20">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
-      <c r="H41" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="33">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="13">
-        <v>93535.14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H44" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="13">
-        <v>9</v>
-      </c>
-      <c r="J44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H45" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J45">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H46" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="30">
-        <v>0.1706</v>
-      </c>
-      <c r="J46" s="34">
-        <v>0.1706</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H47" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="13">
-        <f xml:space="preserve"> IF(I44 = 9, I43/19.5, IF(I44 = 12, I43/26,0))</f>
-        <v>4796.6738461538462</v>
-      </c>
-      <c r="J47" s="42">
-        <v>5088.67</v>
-      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="28"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="30"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="28"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="32"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H46" s="36"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="33"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="C40:E40"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/docs/proposals/NSF/budgets/budgetFSU.xlsx
+++ b/docs/proposals/NSF/budgets/budgetFSU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bquaife/projects/erosion/docs/proposals/NSF/budgets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2440E1-7DBA-2B47-9115-7521B3DD6CE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887891D-17AC-8A4A-B791-4889962EEB03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="2260" windowWidth="26320" windowHeight="25500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="520" windowWidth="26320" windowHeight="25500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="budg 1" sheetId="4" r:id="rId1"/>
@@ -888,7 +888,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -989,19 +989,19 @@
       </c>
       <c r="C6" s="4">
         <f>C5*$I$18</f>
-        <v>1800.2876279384618</v>
+        <v>1956.4673283692312</v>
       </c>
       <c r="D6" s="4">
         <f>D5*$I$18</f>
-        <v>1854.2962567766156</v>
+        <v>2015.1613482203081</v>
       </c>
       <c r="E6" s="4">
         <f>E5*$I$18</f>
-        <v>954.93981220000001</v>
+        <v>1037.7833598000002</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6" si="0">SUM(C6:E6)</f>
-        <v>4609.5236969150774</v>
+        <v>5009.4120363895399</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>10</v>
@@ -1049,19 +1049,19 @@
       </c>
       <c r="C8" s="4">
         <f>(C7*$I$11) + ($I$5*$I$10)</f>
-        <v>1986</v>
+        <v>2091</v>
       </c>
       <c r="D8" s="4">
         <f>(D7*$I$11) + ($I$5*$I$10)</f>
-        <v>1986.63</v>
+        <v>2094.7800000000002</v>
       </c>
       <c r="E8" s="4">
         <f>(E7*$I$11) + ($I$5*$I$10)</f>
-        <v>1987.2789</v>
+        <v>2098.6734000000001</v>
       </c>
       <c r="F8" s="4">
         <f>SUM(C8:E8)</f>
-        <v>5959.9089000000004</v>
+        <v>6284.4534000000003</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>12</v>
@@ -1118,25 +1118,25 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" si="1"/>
-        <v>3786.2876279384618</v>
+        <v>4047.4673283692309</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>3840.9262567766154</v>
+        <v>4109.9413482203081</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>2942.2187122</v>
+        <v>3136.4567598000003</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ref="F11:F12" si="2" xml:space="preserve"> SUM(C11:E11)</f>
-        <v>10569.432596915078</v>
+        <v>11293.86543638954</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="19">
-        <v>1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,19 +1146,19 @@
       <c r="B12" s="1"/>
       <c r="C12" s="3">
         <f>C10+C11</f>
-        <v>35338.970089476919</v>
+        <v>35600.149789907693</v>
       </c>
       <c r="D12" s="3">
         <f>D10+D11</f>
-        <v>36340.189192161233</v>
+        <v>36609.204283604922</v>
       </c>
       <c r="E12" s="3">
         <f>E10+E11</f>
-        <v>30818.655712200001</v>
+        <v>31012.893759800001</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="2"/>
-        <v>102497.81499383817</v>
+        <v>103222.24783331262</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>16</v>
@@ -1278,10 +1278,10 @@
         <v>28</v>
       </c>
       <c r="I18" s="19">
-        <v>0.1706</v>
+        <v>0.18540000000000001</v>
       </c>
       <c r="J18" s="26">
-        <v>0.1706</v>
+        <v>0.18540000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1395,19 +1395,19 @@
       </c>
       <c r="C23" s="3">
         <f>C20+C12+C21+C22</f>
-        <v>44174.870089476921</v>
+        <v>44436.049789907695</v>
       </c>
       <c r="D23" s="3">
         <f>D20+D12+D21+D22</f>
-        <v>45749.448192161231</v>
+        <v>46018.46328360492</v>
       </c>
       <c r="E23" s="3">
         <f>E20+E12+E21+E22</f>
-        <v>40302.155712200001</v>
+        <v>40496.393759800005</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="4"/>
-        <v>130226.47399383815</v>
+        <v>130950.90683331262</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>45</v>
@@ -1422,19 +1422,19 @@
       </c>
       <c r="C24" s="3">
         <f>C20+C12</f>
-        <v>36838.970089476919</v>
+        <v>37100.149789907693</v>
       </c>
       <c r="D24" s="3">
         <f>D20+D12</f>
-        <v>38340.189192161233</v>
+        <v>38609.204283604922</v>
       </c>
       <c r="E24" s="3">
         <f>E20+E12</f>
-        <v>32818.655712200001</v>
+        <v>33012.893759800005</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="4"/>
-        <v>107997.81499383817</v>
+        <v>108722.24783331262</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1455,19 +1455,19 @@
       </c>
       <c r="C26" s="3">
         <f>C24*$I$21</f>
-        <v>19893.043848317539</v>
+        <v>20034.080886550157</v>
       </c>
       <c r="D26" s="3">
         <f>D24*$I$21</f>
-        <v>20703.702163767066</v>
+        <v>20848.970313146659</v>
       </c>
       <c r="E26" s="3">
         <f>E24*$I$21</f>
-        <v>17722.074084588003</v>
+        <v>17826.962630292004</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="4"/>
-        <v>58318.820096672614</v>
+        <v>58710.01382998882</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
@@ -1479,19 +1479,19 @@
       <c r="B27"/>
       <c r="C27" s="3">
         <f>C23+C26</f>
-        <v>64067.913937794459</v>
+        <v>64470.130676457848</v>
       </c>
       <c r="D27" s="3">
         <f>D23+D26</f>
-        <v>66453.150355928301</v>
+        <v>66867.43359675158</v>
       </c>
       <c r="E27" s="3">
         <f>E23+E26</f>
-        <v>58024.229796788</v>
+        <v>58323.356390092013</v>
       </c>
       <c r="F27" s="27">
         <f t="shared" si="4"/>
-        <v>188545.29409051075</v>
+        <v>189660.92066330143</v>
       </c>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
